--- a/loop stuff.xlsx
+++ b/loop stuff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="8">
   <si>
     <t xml:space="preserve"> diam§ondDistanceCounter: 1648.304668472718 </t>
   </si>
@@ -1315,11 +1315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83909632"/>
-        <c:axId val="83907712"/>
+        <c:axId val="102860288"/>
+        <c:axId val="102861824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83909632"/>
+        <c:axId val="102860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -1330,12 +1330,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83907712"/>
+        <c:crossAx val="102861824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83907712"/>
+        <c:axId val="102861824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -1348,14 +1348,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83909632"/>
+        <c:crossAx val="102860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1693,10 +1692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView tabSelected="1" topLeftCell="D130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1706,7 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1720,8 +1719,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>322</v>
       </c>
@@ -1744,7 +1746,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>321</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>319</v>
       </c>
@@ -1787,8 +1789,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>317</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>315</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>313</v>
       </c>
@@ -1853,8 +1858,11 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>312</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>309</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>307</v>
       </c>
@@ -1920,7 +1928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>305</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>303</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>318</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>332</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>335</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>338</v>
       </c>
@@ -4249,6 +4257,385 @@
         <v>156.26412017517703</v>
       </c>
       <c r="L129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>5</v>
+      </c>
+      <c r="K136">
+        <f>60*SIN(I136*6.28/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137">
+        <f>I136+50</f>
+        <v>50</v>
+      </c>
+      <c r="J137" t="s">
+        <v>5</v>
+      </c>
+      <c r="K137">
+        <f t="shared" ref="K137:K155" si="4">100*SIN(I137*6.28/1000)</f>
+        <v>30.886552009893215</v>
+      </c>
+      <c r="L137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138">
+        <f t="shared" ref="I138:I156" si="5">I137+50</f>
+        <v>100</v>
+      </c>
+      <c r="J138" t="s">
+        <v>5</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="4"/>
+        <v>58.752752571389188</v>
+      </c>
+      <c r="L138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>6</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="J139" t="s">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="4"/>
+        <v>80.873606055313019</v>
+      </c>
+      <c r="L139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="J140" t="s">
+        <v>5</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="4"/>
+        <v>95.085946050646996</v>
+      </c>
+      <c r="L140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="J141" t="s">
+        <v>5</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="4"/>
+        <v>99.999968293183457</v>
+      </c>
+      <c r="L141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="J142" t="s">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="4"/>
+        <v>95.13513762338286</v>
+      </c>
+      <c r="L142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="J143" t="s">
+        <v>5</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="4"/>
+        <v>80.967178827716424</v>
+      </c>
+      <c r="L143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>6</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="J144" t="s">
+        <v>5</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="4"/>
+        <v>58.881556196779528</v>
+      </c>
+      <c r="L144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>6</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="J145" t="s">
+        <v>5</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="4"/>
+        <v>31.037990967204166</v>
+      </c>
+      <c r="L145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="J146" t="s">
+        <v>5</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="4"/>
+        <v>0.15926529164868283</v>
+      </c>
+      <c r="L146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>6</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="J147" t="s">
+        <v>5</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="4"/>
+        <v>-30.73503470745565</v>
+      </c>
+      <c r="L147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="J148" t="s">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="4"/>
+        <v>-58.623799917002707</v>
+      </c>
+      <c r="L148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+      <c r="J149" t="s">
+        <v>5</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="4"/>
+        <v>-80.779828143374914</v>
+      </c>
+      <c r="L149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="J150" t="s">
+        <v>5</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="4"/>
+        <v>-95.036513288137627</v>
+      </c>
+      <c r="L150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>6</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="J151" t="s">
+        <v>5</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="4"/>
+        <v>-99.999714638771792</v>
+      </c>
+      <c r="L151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>6</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="J152" t="s">
+        <v>5</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="4"/>
+        <v>-95.184087881568587</v>
+      </c>
+      <c r="L152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+      <c r="J153" t="s">
+        <v>5</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="4"/>
+        <v>-81.060546223233615</v>
+      </c>
+      <c r="L153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="J154" t="s">
+        <v>5</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="4"/>
+        <v>-59.010210466457544</v>
+      </c>
+      <c r="L154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="5"/>
+        <v>950</v>
+      </c>
+      <c r="J155" t="s">
+        <v>5</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="4"/>
+        <v>-31.189351195256766</v>
+      </c>
+      <c r="L155" t="s">
         <v>7</v>
       </c>
     </row>

--- a/loop stuff.xlsx
+++ b/loop stuff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="9">
   <si>
     <t xml:space="preserve"> diam§ondDistanceCounter: 1648.304668472718 </t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>,type:"diamond","animation":"cycle","graphicType":"sprite"},</t>
+  </si>
+  <si>
+    <t>log(</t>
   </si>
 </sst>
 </file>
@@ -1692,10 +1695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+    <sheetView tabSelected="1" topLeftCell="D121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,7 +4246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
         <v>6</v>
       </c>
@@ -4260,7 +4263,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <f>SQRT(1400)</f>
+        <v>37.416573867739416</v>
+      </c>
+    </row>
+    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134">
+        <f>35^2</f>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <f>E136^2</f>
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
       <c r="H136" t="s">
         <v>6</v>
       </c>
@@ -4271,372 +4299,856 @@
         <v>5</v>
       </c>
       <c r="K136">
-        <f>60*SIN(I136*6.28/1000)</f>
+        <f>150*SIN(I136*6.28/3000)</f>
         <v>0</v>
       </c>
       <c r="L136" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <f>E136+1</f>
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ref="F137:F172" si="4">E137^2</f>
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <f>G136+40</f>
+        <v>41</v>
+      </c>
       <c r="H137" t="s">
         <v>6</v>
       </c>
       <c r="I137">
-        <f>I136+50</f>
-        <v>50</v>
+        <f>I136+150</f>
+        <v>150</v>
       </c>
       <c r="J137" t="s">
         <v>5</v>
       </c>
       <c r="K137">
-        <f t="shared" ref="K137:K155" si="4">100*SIN(I137*6.28/1000)</f>
-        <v>30.886552009893215</v>
+        <f t="shared" ref="K137:K155" si="5">150*SIN(I137*6.28/3000)</f>
+        <v>46.329828014839819</v>
       </c>
       <c r="L137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <f t="shared" ref="E138:E175" si="6">E137+1</f>
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ref="G138:G172" si="7">G137+40</f>
+        <v>81</v>
+      </c>
       <c r="H138" t="s">
         <v>6</v>
       </c>
       <c r="I138">
-        <f t="shared" ref="I138:I156" si="5">I137+50</f>
-        <v>100</v>
+        <f t="shared" ref="I138:I155" si="8">I137+150</f>
+        <v>300</v>
       </c>
       <c r="J138" t="s">
         <v>5</v>
       </c>
       <c r="K138">
-        <f t="shared" si="4"/>
-        <v>58.752752571389188</v>
+        <f t="shared" si="5"/>
+        <v>88.129128857083785</v>
       </c>
       <c r="L138" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
       <c r="H139" t="s">
         <v>6</v>
       </c>
       <c r="I139">
-        <f t="shared" si="5"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>450</v>
       </c>
       <c r="J139" t="s">
         <v>5</v>
       </c>
       <c r="K139">
-        <f t="shared" si="4"/>
-        <v>80.873606055313019</v>
+        <f t="shared" si="5"/>
+        <v>121.31040908296953</v>
       </c>
       <c r="L139" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
       <c r="H140" t="s">
         <v>6</v>
       </c>
       <c r="I140">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>600</v>
       </c>
       <c r="J140" t="s">
         <v>5</v>
       </c>
       <c r="K140">
-        <f t="shared" si="4"/>
-        <v>95.085946050646996</v>
+        <f t="shared" si="5"/>
+        <v>142.62891907597049</v>
       </c>
       <c r="L140" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
       <c r="H141" t="s">
         <v>6</v>
       </c>
       <c r="I141">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
       <c r="J141" t="s">
         <v>5</v>
       </c>
       <c r="K141">
-        <f t="shared" si="4"/>
-        <v>99.999968293183457</v>
+        <f t="shared" si="5"/>
+        <v>149.9999524397752</v>
       </c>
       <c r="L141" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
       <c r="H142" t="s">
         <v>6</v>
       </c>
       <c r="I142">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f t="shared" si="8"/>
+        <v>900</v>
       </c>
       <c r="J142" t="s">
         <v>5</v>
       </c>
       <c r="K142">
-        <f t="shared" si="4"/>
-        <v>95.13513762338286</v>
+        <f t="shared" si="5"/>
+        <v>142.70270643507428</v>
       </c>
       <c r="L142" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
       <c r="H143" t="s">
         <v>6</v>
       </c>
       <c r="I143">
-        <f t="shared" si="5"/>
-        <v>350</v>
+        <f t="shared" si="8"/>
+        <v>1050</v>
       </c>
       <c r="J143" t="s">
         <v>5</v>
       </c>
       <c r="K143">
-        <f t="shared" si="4"/>
-        <v>80.967178827716424</v>
+        <f t="shared" si="5"/>
+        <v>121.45076824157464</v>
       </c>
       <c r="L143" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>321</v>
+      </c>
       <c r="H144" t="s">
         <v>6</v>
       </c>
       <c r="I144">
-        <f t="shared" si="5"/>
-        <v>400</v>
+        <f t="shared" si="8"/>
+        <v>1200</v>
       </c>
       <c r="J144" t="s">
         <v>5</v>
       </c>
       <c r="K144">
-        <f t="shared" si="4"/>
-        <v>58.881556196779528</v>
+        <f t="shared" si="5"/>
+        <v>88.322334295169298</v>
       </c>
       <c r="L144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="7"/>
+        <v>361</v>
+      </c>
       <c r="H145" t="s">
         <v>6</v>
       </c>
       <c r="I145">
-        <f t="shared" si="5"/>
-        <v>450</v>
+        <f t="shared" si="8"/>
+        <v>1350</v>
       </c>
       <c r="J145" t="s">
         <v>5</v>
       </c>
       <c r="K145">
-        <f t="shared" si="4"/>
-        <v>31.037990967204166</v>
+        <f t="shared" si="5"/>
+        <v>46.556986450806249</v>
       </c>
       <c r="L145" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="7"/>
+        <v>401</v>
+      </c>
       <c r="H146" t="s">
         <v>6</v>
       </c>
       <c r="I146">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="8"/>
+        <v>1500</v>
       </c>
       <c r="J146" t="s">
         <v>5</v>
       </c>
       <c r="K146">
-        <f t="shared" si="4"/>
-        <v>0.15926529164868283</v>
+        <f t="shared" si="5"/>
+        <v>0.23889793747302424</v>
       </c>
       <c r="L146" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="7"/>
+        <v>441</v>
+      </c>
       <c r="H147" t="s">
         <v>6</v>
       </c>
       <c r="I147">
-        <f t="shared" si="5"/>
-        <v>550</v>
+        <f t="shared" si="8"/>
+        <v>1650</v>
       </c>
       <c r="J147" t="s">
         <v>5</v>
       </c>
       <c r="K147">
-        <f t="shared" si="4"/>
-        <v>-30.73503470745565</v>
+        <f t="shared" si="5"/>
+        <v>-46.102552061183474</v>
       </c>
       <c r="L147" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="7"/>
+        <v>481</v>
+      </c>
       <c r="H148" t="s">
         <v>6</v>
       </c>
       <c r="I148">
-        <f t="shared" si="5"/>
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>1800</v>
       </c>
       <c r="J148" t="s">
         <v>5</v>
       </c>
       <c r="K148">
-        <f t="shared" si="4"/>
-        <v>-58.623799917002707</v>
+        <f t="shared" si="5"/>
+        <v>-87.935699875504056</v>
       </c>
       <c r="L148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="7"/>
+        <v>521</v>
+      </c>
       <c r="H149" t="s">
         <v>6</v>
       </c>
       <c r="I149">
-        <f t="shared" si="5"/>
-        <v>650</v>
+        <f t="shared" si="8"/>
+        <v>1950</v>
       </c>
       <c r="J149" t="s">
         <v>5</v>
       </c>
       <c r="K149">
-        <f t="shared" si="4"/>
-        <v>-80.779828143374914</v>
+        <f t="shared" si="5"/>
+        <v>-121.16974221506239</v>
       </c>
       <c r="L149" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>561</v>
+      </c>
       <c r="H150" t="s">
         <v>6</v>
       </c>
       <c r="I150">
-        <f t="shared" si="5"/>
-        <v>700</v>
+        <f t="shared" si="8"/>
+        <v>2100</v>
       </c>
       <c r="J150" t="s">
         <v>5</v>
       </c>
       <c r="K150">
-        <f t="shared" si="4"/>
-        <v>-95.036513288137627</v>
+        <f t="shared" si="5"/>
+        <v>-142.55476993220643</v>
       </c>
       <c r="L150" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="7"/>
+        <v>601</v>
+      </c>
       <c r="H151" t="s">
         <v>6</v>
       </c>
       <c r="I151">
-        <f t="shared" si="5"/>
-        <v>750</v>
+        <f t="shared" si="8"/>
+        <v>2250</v>
       </c>
       <c r="J151" t="s">
         <v>5</v>
       </c>
       <c r="K151">
-        <f t="shared" si="4"/>
-        <v>-99.999714638771792</v>
+        <f t="shared" si="5"/>
+        <v>-149.9995719581577</v>
       </c>
       <c r="L151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="7"/>
+        <v>641</v>
+      </c>
       <c r="H152" t="s">
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="5"/>
-        <v>800</v>
+        <f t="shared" si="8"/>
+        <v>2400</v>
       </c>
       <c r="J152" t="s">
         <v>5</v>
       </c>
       <c r="K152">
-        <f t="shared" si="4"/>
-        <v>-95.184087881568587</v>
+        <f t="shared" si="5"/>
+        <v>-142.77613182235288</v>
       </c>
       <c r="L152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="7"/>
+        <v>681</v>
+      </c>
       <c r="H153" t="s">
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="5"/>
-        <v>850</v>
+        <f t="shared" si="8"/>
+        <v>2550</v>
       </c>
       <c r="J153" t="s">
         <v>5</v>
       </c>
       <c r="K153">
-        <f t="shared" si="4"/>
-        <v>-81.060546223233615</v>
+        <f t="shared" si="5"/>
+        <v>-121.59081933485041</v>
       </c>
       <c r="L153" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>361</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="7"/>
+        <v>721</v>
+      </c>
       <c r="H154" t="s">
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="5"/>
-        <v>900</v>
+        <f t="shared" si="8"/>
+        <v>2700</v>
       </c>
       <c r="J154" t="s">
         <v>5</v>
       </c>
       <c r="K154">
-        <f t="shared" si="4"/>
-        <v>-59.010210466457544</v>
+        <f t="shared" si="5"/>
+        <v>-88.515315699686326</v>
       </c>
       <c r="L154" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="7"/>
+        <v>761</v>
+      </c>
       <c r="H155" t="s">
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="5"/>
-        <v>950</v>
+        <f t="shared" si="8"/>
+        <v>2850</v>
       </c>
       <c r="J155" t="s">
         <v>5</v>
       </c>
       <c r="K155">
-        <f t="shared" si="4"/>
-        <v>-31.189351195256766</v>
+        <f t="shared" si="5"/>
+        <v>-46.78402679288515</v>
       </c>
       <c r="L155" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="7"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="157" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>484</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="7"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="158" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>529</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="7"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="159" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>576</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="160" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="7"/>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>676</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="7"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>729</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="7"/>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>784</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="7"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>841</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="7"/>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="7"/>
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="4"/>
+        <v>961</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="7"/>
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="7"/>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="4"/>
+        <v>1089</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="7"/>
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="4"/>
+        <v>1156</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="7"/>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="7"/>
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="4"/>
+        <v>1296</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="7"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="4"/>
+        <v>1369</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="7"/>
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
